--- a/MaxFashion_Selenium_Project/TestData/InputData.xlsx
+++ b/MaxFashion_Selenium_Project/TestData/InputData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MiniProject-SDET\MaxFashion\MaxFashion\MaxFashion_Selenium_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC9AB94-5B84-465D-82F9-6F5D07F42AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548F0C40-FF96-4A89-93ED-DDD92327782E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductSearch" sheetId="1" r:id="rId1"/>
     <sheet name="RatingSheet" sheetId="2" r:id="rId2"/>
+    <sheet name="OnlineGiftCardSheet" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>searchtext</t>
   </si>
@@ -65,16 +66,78 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Send As Gift</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom </t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>tom@gmail.com</t>
+  </si>
+  <si>
+    <t>Happy Birthday</t>
+  </si>
+  <si>
+    <t>2,000</t>
+  </si>
+  <si>
+    <t>mincost</t>
+  </si>
+  <si>
+    <t>maxcost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,13 +160,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -394,7 +461,7 @@
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,8 +471,14 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -414,6 +487,12 @@
       </c>
       <c r="C2">
         <v>2</v>
+      </c>
+      <c r="D2">
+        <v>299</v>
+      </c>
+      <c r="E2">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -425,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF32411-5B09-4235-87CA-C6193E9FB198}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -473,4 +552,93 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7861D1F5-6A2D-4624-8D23-E0D2583669D2}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" customWidth="1"/>
+    <col min="9" max="9" width="24.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2">
+        <v>9876543210</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="G3" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{13E1111C-7EE1-4919-9E90-F73CECB9AD3B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>